--- a/data/total_steam_charts.xlsx
+++ b/data/total_steam_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C074721-ECD5-4C9D-95DC-D01A5A234A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA272261-DE2A-410E-835A-FB3DADA9A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9927B8F9-BD31-4F63-853A-FACE68655D1D}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>VRChat</t>
   </si>
   <si>
-    <t>Governor of Poker 3</t>
-  </si>
-  <si>
     <t>ELDEN RING</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Left 4 Dead 2</t>
   </si>
   <si>
-    <t>Cats</t>
-  </si>
-  <si>
     <t>Garry's Mod</t>
   </si>
   <si>
@@ -283,33 +277,15 @@
     <t>Soundpad</t>
   </si>
   <si>
-    <t>Warhammer 40,000: Space Marine 2</t>
-  </si>
-  <si>
     <t>The Witcher 3: Wild Hunt</t>
   </si>
   <si>
-    <t>WEBFISHING</t>
-  </si>
-  <si>
     <t>Brawlhalla</t>
   </si>
   <si>
-    <t>Brighter Shores</t>
-  </si>
-  <si>
     <t>MIR4</t>
   </si>
   <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>TCG Card Shop Simulator</t>
-  </si>
-  <si>
-    <t>Sons Of The Forest</t>
-  </si>
-  <si>
     <t>EA SPORTS FCâ„¢ 24</t>
   </si>
   <si>
@@ -328,13 +304,37 @@
     <t>NBA 2K25</t>
   </si>
   <si>
-    <t>The Elder Scrolls Online</t>
-  </si>
-  <si>
-    <t>Killing Floor 2</t>
-  </si>
-  <si>
     <t>Black Desert</t>
+  </si>
+  <si>
+    <t>Black Myth: Wukong</t>
+  </si>
+  <si>
+    <t>STALCRAFT: X</t>
+  </si>
+  <si>
+    <t>eFootballâ„¢</t>
+  </si>
+  <si>
+    <t>Counter-Strike</t>
+  </si>
+  <si>
+    <t>SCUM</t>
+  </si>
+  <si>
+    <t>Forza Horizon 5</t>
+  </si>
+  <si>
+    <t>Unturned</t>
+  </si>
+  <si>
+    <t>OBS Studio</t>
+  </si>
+  <si>
+    <t>Broken Arrow Playtest</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,13 +1214,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>829096</v>
+        <v>970520</v>
       </c>
       <c r="E2">
-        <v>1484045</v>
+        <v>1442806</v>
       </c>
       <c r="F2">
-        <v>605773333</v>
+        <v>597436988</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>521100</v>
+        <v>644626</v>
       </c>
       <c r="E3">
         <v>797599</v>
       </c>
       <c r="F3">
-        <v>313409874</v>
+        <v>311331953</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,16 +1251,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>341149</v>
+        <v>272635</v>
       </c>
       <c r="E4">
-        <v>483731</v>
+        <v>755939</v>
       </c>
       <c r="F4">
-        <v>300113197</v>
+        <v>221806238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,16 +1271,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>215954</v>
+        <v>223397</v>
       </c>
       <c r="E5">
-        <v>313313</v>
+        <v>483731</v>
       </c>
       <c r="F5">
-        <v>97510522</v>
+        <v>293527411</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>166177</v>
+        <v>160356</v>
       </c>
       <c r="E6">
-        <v>762909</v>
+        <v>313313</v>
       </c>
       <c r="F6">
-        <v>224954941</v>
+        <v>102709888</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>128655</v>
+        <v>132504</v>
       </c>
       <c r="E7">
         <v>182603</v>
       </c>
       <c r="F7">
-        <v>67935307</v>
+        <v>66651705</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,16 +1331,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>109048</v>
+        <v>117037</v>
       </c>
       <c r="E8">
-        <v>279698</v>
+        <v>172551</v>
       </c>
       <c r="F8">
-        <v>95865025</v>
+        <v>68207824</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>94322</v>
+        <v>104775</v>
       </c>
       <c r="E9">
-        <v>172551</v>
+        <v>229014</v>
       </c>
       <c r="F9">
-        <v>69180755</v>
+        <v>87216654</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>89482</v>
+        <v>79618</v>
       </c>
       <c r="E10">
-        <v>112097</v>
+        <v>225795</v>
       </c>
       <c r="F10">
-        <v>44636583</v>
+        <v>63323033</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,16 +1391,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>83278</v>
+        <v>70929</v>
       </c>
       <c r="E11">
-        <v>118166</v>
+        <v>111810</v>
       </c>
       <c r="F11">
-        <v>37014714</v>
+        <v>44248454</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>69611</v>
+        <v>67212</v>
       </c>
       <c r="E12">
-        <v>111810</v>
+        <v>72390</v>
       </c>
       <c r="F12">
-        <v>45106081</v>
+        <v>25437718</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>68771</v>
+        <v>61117</v>
       </c>
       <c r="E13">
-        <v>225795</v>
+        <v>142248</v>
       </c>
       <c r="F13">
-        <v>64195391</v>
+        <v>57292529</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,16 +1451,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>65314</v>
+        <v>59125</v>
       </c>
       <c r="E14">
-        <v>68628</v>
+        <v>107242</v>
       </c>
       <c r="F14">
-        <v>32372413</v>
+        <v>42901925</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,16 +1471,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>63705</v>
+        <v>58937</v>
       </c>
       <c r="E15">
-        <v>73742</v>
+        <v>118166</v>
       </c>
       <c r="F15">
-        <v>40057166</v>
+        <v>39211782</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,16 +1491,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>54062</v>
+        <v>56002</v>
       </c>
       <c r="E16">
-        <v>78739</v>
+        <v>65746</v>
       </c>
       <c r="F16">
-        <v>30876970</v>
+        <v>27081564</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,16 +1511,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>53490</v>
+        <v>52413</v>
       </c>
       <c r="E17">
-        <v>176909</v>
+        <v>68628</v>
       </c>
       <c r="F17">
-        <v>51715844</v>
+        <v>31853366</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,16 +1531,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>51854</v>
+        <v>51703</v>
       </c>
       <c r="E18">
-        <v>65746</v>
+        <v>75692</v>
       </c>
       <c r="F18">
-        <v>27193799</v>
+        <v>35418328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>49038</v>
+        <v>49900</v>
       </c>
       <c r="E19">
-        <v>72196</v>
+        <v>92254</v>
       </c>
       <c r="F19">
-        <v>25241732</v>
+        <v>30515009</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>48677</v>
+        <v>49743</v>
       </c>
       <c r="E20">
-        <v>142248</v>
+        <v>156192</v>
       </c>
       <c r="F20">
-        <v>57853136</v>
+        <v>48775220</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,16 +1591,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>47308</v>
+        <v>49256</v>
       </c>
       <c r="E21">
-        <v>60656</v>
+        <v>78739</v>
       </c>
       <c r="F21">
-        <v>5248080</v>
+        <v>30651351</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,16 +1611,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>47284</v>
+        <v>47508</v>
       </c>
       <c r="E22">
-        <v>98019</v>
+        <v>70208</v>
       </c>
       <c r="F22">
-        <v>32716784</v>
+        <v>30573101</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,16 +1631,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>45620</v>
+        <v>44515</v>
       </c>
       <c r="E23">
-        <v>73054</v>
+        <v>330690</v>
       </c>
       <c r="F23">
-        <v>30699909</v>
+        <v>77915159</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,16 +1651,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>45045</v>
+        <v>43170</v>
       </c>
       <c r="E24">
-        <v>113478</v>
+        <v>68820</v>
       </c>
       <c r="F24">
-        <v>34218576</v>
+        <v>24555442</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,16 +1671,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>44328</v>
+        <v>42433</v>
       </c>
       <c r="E25">
-        <v>70208</v>
+        <v>54229</v>
       </c>
       <c r="F25">
-        <v>30517701</v>
+        <v>31366139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,16 +1691,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>44232</v>
+        <v>42080</v>
       </c>
       <c r="E26">
-        <v>54229</v>
+        <v>72131</v>
       </c>
       <c r="F26">
-        <v>31732730</v>
+        <v>38586480</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,16 +1711,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>43620</v>
+        <v>41627</v>
       </c>
       <c r="E27">
-        <v>78427</v>
+        <v>105041</v>
       </c>
       <c r="F27">
-        <v>36601098</v>
+        <v>39117218</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>31</v>
       </c>
       <c r="D28">
-        <v>43231</v>
+        <v>38415</v>
       </c>
       <c r="E28">
         <v>74430</v>
       </c>
       <c r="F28">
-        <v>31581153</v>
+        <v>30776406</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,16 +1751,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>40146</v>
+        <v>37759</v>
       </c>
       <c r="E29">
-        <v>53806</v>
+        <v>73054</v>
       </c>
       <c r="F29">
-        <v>14536395</v>
+        <v>29185569</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,16 +1771,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>39870</v>
+        <v>36804</v>
       </c>
       <c r="E30">
-        <v>105041</v>
+        <v>57089</v>
       </c>
       <c r="F30">
-        <v>40073978</v>
+        <v>19238606</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,16 +1791,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>36519</v>
+        <v>34645</v>
       </c>
       <c r="E31">
-        <v>51524</v>
+        <v>96212</v>
       </c>
       <c r="F31">
-        <v>15574452</v>
+        <v>27142598</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,16 +1811,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>35703</v>
+        <v>31573</v>
       </c>
       <c r="E32">
-        <v>72390</v>
+        <v>58217</v>
       </c>
       <c r="F32">
-        <v>26426256</v>
+        <v>24482871</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>36</v>
       </c>
       <c r="D33">
-        <v>34417</v>
+        <v>30276</v>
       </c>
       <c r="E33">
         <v>46060</v>
       </c>
       <c r="F33">
-        <v>19971330</v>
+        <v>19510585</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +1851,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>33666</v>
+        <v>29196</v>
       </c>
       <c r="E34">
-        <v>57089</v>
+        <v>72196</v>
       </c>
       <c r="F34">
-        <v>19710966</v>
+        <v>25083289</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,16 +1871,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>32752</v>
+        <v>28966</v>
       </c>
       <c r="E35">
-        <v>51218</v>
+        <v>94294</v>
       </c>
       <c r="F35">
-        <v>19947075</v>
+        <v>30538620</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,16 +1891,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>32361</v>
+        <v>27493</v>
       </c>
       <c r="E36">
-        <v>61364</v>
+        <v>51524</v>
       </c>
       <c r="F36">
-        <v>20918202</v>
+        <v>15531262</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>32298</v>
+        <v>26690</v>
       </c>
       <c r="E37">
-        <v>68820</v>
+        <v>51218</v>
       </c>
       <c r="F37">
-        <v>25508051</v>
+        <v>19514283</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,16 +1931,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>31931</v>
+        <v>26204</v>
       </c>
       <c r="E38">
-        <v>38041</v>
+        <v>60656</v>
       </c>
       <c r="F38">
-        <v>4783767</v>
+        <v>6862568</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,13 +1954,13 @@
         <v>42</v>
       </c>
       <c r="D39">
-        <v>30888</v>
+        <v>26128</v>
       </c>
       <c r="E39">
-        <v>79149</v>
+        <v>56453</v>
       </c>
       <c r="F39">
-        <v>26619193</v>
+        <v>24287839</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,16 +1971,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>30754</v>
+        <v>26052</v>
       </c>
       <c r="E40">
-        <v>47816</v>
+        <v>43004</v>
       </c>
       <c r="F40">
-        <v>15821128</v>
+        <v>17770091</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,16 +1991,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>30741</v>
+        <v>25418</v>
       </c>
       <c r="E41">
-        <v>58217</v>
+        <v>51998</v>
       </c>
       <c r="F41">
-        <v>24709973</v>
+        <v>23975528</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,16 +2011,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>29526</v>
+        <v>24699</v>
       </c>
       <c r="E42">
-        <v>43004</v>
+        <v>61364</v>
       </c>
       <c r="F42">
-        <v>18079384</v>
+        <v>21933197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,16 +2031,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>29469</v>
+        <v>24683</v>
       </c>
       <c r="E43">
-        <v>29469</v>
+        <v>53447</v>
       </c>
       <c r="F43">
-        <v>8349583</v>
+        <v>21323345</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,16 +2051,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>29438</v>
+        <v>24350</v>
       </c>
       <c r="E44">
-        <v>32771</v>
+        <v>48339</v>
       </c>
       <c r="F44">
-        <v>13052937</v>
+        <v>19145985</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,16 +2071,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>28560</v>
+        <v>24248</v>
       </c>
       <c r="E45">
-        <v>51998</v>
+        <v>38041</v>
       </c>
       <c r="F45">
-        <v>24709684</v>
+        <v>5782408</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,16 +2091,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>28455</v>
+        <v>24097</v>
       </c>
       <c r="E46">
-        <v>43739</v>
+        <v>44166</v>
       </c>
       <c r="F46">
-        <v>10957969</v>
+        <v>17604403</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,16 +2111,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>28237</v>
+        <v>23680</v>
       </c>
       <c r="E47">
-        <v>56896</v>
+        <v>35071</v>
       </c>
       <c r="F47">
-        <v>22409050</v>
+        <v>12164580</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,16 +2131,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>27930</v>
+        <v>23542</v>
       </c>
       <c r="E48">
-        <v>51594</v>
+        <v>33084</v>
       </c>
       <c r="F48">
-        <v>20068026</v>
+        <v>13319588</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,16 +2151,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>27744</v>
+        <v>22901</v>
       </c>
       <c r="E49">
-        <v>96212</v>
+        <v>71531</v>
       </c>
       <c r="F49">
-        <v>27364244</v>
+        <v>18609916</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,16 +2171,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>27232</v>
+        <v>22815</v>
       </c>
       <c r="E50">
-        <v>32104</v>
+        <v>39202</v>
       </c>
       <c r="F50">
-        <v>14661628</v>
+        <v>16185848</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,16 +2191,16 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>26389</v>
+        <v>22690</v>
       </c>
       <c r="E51">
-        <v>32249</v>
+        <v>73568</v>
       </c>
       <c r="F51">
-        <v>14383427</v>
+        <v>21204468</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2211,16 +2211,16 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>25776</v>
+        <v>22551</v>
       </c>
       <c r="E52">
-        <v>30701</v>
+        <v>46534</v>
       </c>
       <c r="F52">
-        <v>8296773</v>
+        <v>14932830</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,16 +2231,16 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>25058</v>
+        <v>22497</v>
       </c>
       <c r="E53">
-        <v>44166</v>
+        <v>35733</v>
       </c>
       <c r="F53">
-        <v>17798448</v>
+        <v>13222399</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,16 +2251,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>24143</v>
+        <v>22074</v>
       </c>
       <c r="E54">
-        <v>35936</v>
+        <v>32104</v>
       </c>
       <c r="F54">
-        <v>14214994</v>
+        <v>14356227</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2271,16 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>24022</v>
+        <v>22067</v>
       </c>
       <c r="E55">
-        <v>35071</v>
+        <v>53806</v>
       </c>
       <c r="F55">
-        <v>11864086</v>
+        <v>14913389</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,16 +2291,16 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D56">
-        <v>23965</v>
+        <v>21962</v>
       </c>
       <c r="E56">
-        <v>71531</v>
+        <v>30249</v>
       </c>
       <c r="F56">
-        <v>18640478</v>
+        <v>13531629</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,16 +2311,16 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>23652</v>
+        <v>21792</v>
       </c>
       <c r="E57">
-        <v>32592</v>
+        <v>30701</v>
       </c>
       <c r="F57">
-        <v>16112459</v>
+        <v>8341655</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,16 +2331,16 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>23284</v>
+        <v>21562</v>
       </c>
       <c r="E58">
-        <v>33084</v>
+        <v>32249</v>
       </c>
       <c r="F58">
-        <v>13699023</v>
+        <v>14025446</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,16 +2351,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D59">
-        <v>23191</v>
+        <v>21337</v>
       </c>
       <c r="E59">
-        <v>27243</v>
+        <v>32771</v>
       </c>
       <c r="F59">
-        <v>13041454</v>
+        <v>12750216</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,16 +2371,16 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>22414</v>
+        <v>21235</v>
       </c>
       <c r="E60">
-        <v>32219</v>
+        <v>38710</v>
       </c>
       <c r="F60">
-        <v>15728778</v>
+        <v>15937102</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,16 +2391,16 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>21593</v>
+        <v>21177</v>
       </c>
       <c r="E61">
-        <v>39496</v>
+        <v>186536</v>
       </c>
       <c r="F61">
-        <v>16568666</v>
+        <v>40949875</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,16 +2411,16 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>21526</v>
+        <v>20104</v>
       </c>
       <c r="E62">
-        <v>39202</v>
+        <v>32219</v>
       </c>
       <c r="F62">
-        <v>16658588</v>
+        <v>15269517</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,16 +2431,16 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63">
-        <v>20715</v>
+        <v>19919</v>
       </c>
       <c r="E63">
         <v>44448</v>
       </c>
       <c r="F63">
-        <v>17584489</v>
+        <v>16985027</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,16 +2451,16 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D64">
-        <v>20418</v>
+        <v>19674</v>
       </c>
       <c r="E64">
-        <v>25276</v>
+        <v>36874</v>
       </c>
       <c r="F64">
-        <v>11894695</v>
+        <v>8460456</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,16 +2471,16 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>20101</v>
+        <v>19338</v>
       </c>
       <c r="E65">
-        <v>30771</v>
+        <v>32691</v>
       </c>
       <c r="F65">
-        <v>12391449</v>
+        <v>13484284</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,16 +2491,16 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D66">
-        <v>19668</v>
+        <v>18939</v>
       </c>
       <c r="E66">
-        <v>30249</v>
+        <v>25333</v>
       </c>
       <c r="F66">
-        <v>14180884</v>
+        <v>10515745</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,16 +2511,16 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D67">
-        <v>19255</v>
+        <v>18598</v>
       </c>
       <c r="E67">
-        <v>21909</v>
+        <v>39554</v>
       </c>
       <c r="F67">
-        <v>11080240</v>
+        <v>13719846</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,16 +2531,16 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D68">
-        <v>19172</v>
+        <v>18348</v>
       </c>
       <c r="E68">
-        <v>27430</v>
+        <v>30628</v>
       </c>
       <c r="F68">
-        <v>10532810</v>
+        <v>12330690</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,16 +2551,16 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>19151</v>
+        <v>17422</v>
       </c>
       <c r="E69">
-        <v>336582</v>
+        <v>25276</v>
       </c>
       <c r="F69">
-        <v>80395977</v>
+        <v>11636525</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,16 +2571,16 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D70">
-        <v>18404</v>
+        <v>17391</v>
       </c>
       <c r="E70">
-        <v>27030</v>
+        <v>38761</v>
       </c>
       <c r="F70">
-        <v>11037385</v>
+        <v>11133060</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,16 +2591,16 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D71">
-        <v>17889</v>
+        <v>16625</v>
       </c>
       <c r="E71">
-        <v>23995</v>
+        <v>21909</v>
       </c>
       <c r="F71">
-        <v>11299964</v>
+        <v>10796228</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,16 +2611,16 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D72">
-        <v>17751</v>
+        <v>16400</v>
       </c>
       <c r="E72">
-        <v>24261</v>
+        <v>23711</v>
       </c>
       <c r="F72">
-        <v>10351300</v>
+        <v>10046275</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,16 +2631,16 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D73">
-        <v>17716</v>
+        <v>15654</v>
       </c>
       <c r="E73">
-        <v>31741</v>
+        <v>30771</v>
       </c>
       <c r="F73">
-        <v>9266617</v>
+        <v>11974965</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,16 +2651,16 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>17693</v>
+        <v>15500</v>
       </c>
       <c r="E74">
-        <v>30628</v>
+        <v>22753</v>
       </c>
       <c r="F74">
-        <v>12532555</v>
+        <v>10945696</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,16 +2671,16 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D75">
-        <v>17648</v>
+        <v>15471</v>
       </c>
       <c r="E75">
-        <v>17784</v>
+        <v>16848</v>
       </c>
       <c r="F75">
-        <v>8172690</v>
+        <v>7127201</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,16 +2691,16 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D76">
-        <v>17582</v>
+        <v>15451</v>
       </c>
       <c r="E76">
-        <v>38761</v>
+        <v>19950</v>
       </c>
       <c r="F76">
-        <v>10554093</v>
+        <v>9116105</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,16 +2711,16 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D77">
-        <v>17580</v>
+        <v>15216</v>
       </c>
       <c r="E77">
-        <v>25487</v>
+        <v>32231</v>
       </c>
       <c r="F77">
-        <v>10878136</v>
+        <v>12814668</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,16 +2731,16 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D78">
-        <v>16881</v>
+        <v>15182</v>
       </c>
       <c r="E78">
-        <v>29677</v>
+        <v>24773</v>
       </c>
       <c r="F78">
-        <v>10924698</v>
+        <v>10167792</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,16 +2751,16 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D79">
-        <v>16791</v>
+        <v>15173</v>
       </c>
       <c r="E79">
-        <v>24954</v>
+        <v>16708</v>
       </c>
       <c r="F79">
-        <v>9945991</v>
+        <v>11286917</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,16 +2771,16 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>16447</v>
+        <v>15016</v>
       </c>
       <c r="E80">
-        <v>34494</v>
+        <v>29677</v>
       </c>
       <c r="F80">
-        <v>8065455</v>
+        <v>10820802</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,16 +2791,16 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D81">
-        <v>16215</v>
+        <v>14832</v>
       </c>
       <c r="E81">
-        <v>23901</v>
+        <v>24261</v>
       </c>
       <c r="F81">
-        <v>10429642</v>
+        <v>10151687</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,16 +2811,16 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D82">
-        <v>15977</v>
+        <v>14793</v>
       </c>
       <c r="E82">
-        <v>39554</v>
+        <v>27030</v>
       </c>
       <c r="F82">
-        <v>13886773</v>
+        <v>10705002</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,16 +2831,16 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D83">
-        <v>15665</v>
+        <v>14655</v>
       </c>
       <c r="E83">
-        <v>19950</v>
+        <v>16100</v>
       </c>
       <c r="F83">
-        <v>9315480</v>
+        <v>7384414</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,16 +2851,16 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D84">
-        <v>15401</v>
+        <v>14592</v>
       </c>
       <c r="E84">
-        <v>42444</v>
+        <v>24219</v>
       </c>
       <c r="F84">
-        <v>13982077</v>
+        <v>10607015</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,16 +2871,16 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D85">
-        <v>15107</v>
+        <v>14528</v>
       </c>
       <c r="E85">
         <v>25931</v>
       </c>
       <c r="F85">
-        <v>8752627</v>
+        <v>8589966</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,16 +2891,16 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D86">
-        <v>15006</v>
+        <v>13659</v>
       </c>
       <c r="E86">
-        <v>23966</v>
+        <v>14789</v>
       </c>
       <c r="F86">
-        <v>6721039</v>
+        <v>7726393</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,16 +2911,16 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D87">
-        <v>14792</v>
+        <v>13561</v>
       </c>
       <c r="E87">
-        <v>18043</v>
+        <v>17784</v>
       </c>
       <c r="F87">
-        <v>7812736</v>
+        <v>8474972</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,16 +2931,16 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D88">
-        <v>14682</v>
+        <v>13498</v>
       </c>
       <c r="E88">
-        <v>17084</v>
+        <v>18501</v>
       </c>
       <c r="F88">
-        <v>1177191</v>
+        <v>6674136</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,16 +2951,16 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D89">
-        <v>14609</v>
+        <v>13315</v>
       </c>
       <c r="E89">
-        <v>16708</v>
+        <v>24954</v>
       </c>
       <c r="F89">
-        <v>11423797</v>
+        <v>9825672</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,16 +2971,16 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D90">
-        <v>14521</v>
+        <v>13074</v>
       </c>
       <c r="E90">
-        <v>25403</v>
+        <v>26560</v>
       </c>
       <c r="F90">
-        <v>8554785</v>
+        <v>10959919</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,16 +2991,16 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D91">
-        <v>14099</v>
+        <v>13012</v>
       </c>
       <c r="E91">
-        <v>53322</v>
+        <v>18043</v>
       </c>
       <c r="F91">
-        <v>20575983</v>
+        <v>7653336</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,16 +3011,16 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D92">
-        <v>13899</v>
+        <v>13001</v>
       </c>
       <c r="E92">
-        <v>53531</v>
+        <v>34494</v>
       </c>
       <c r="F92">
-        <v>8731819</v>
+        <v>8473756</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,16 +3031,16 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D93">
-        <v>13629</v>
+        <v>12983</v>
       </c>
       <c r="E93">
-        <v>28339</v>
+        <v>29905</v>
       </c>
       <c r="F93">
-        <v>10584800</v>
+        <v>8885007</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,16 +3051,16 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D94">
-        <v>13594</v>
+        <v>12855</v>
       </c>
       <c r="E94">
-        <v>25289</v>
+        <v>31741</v>
       </c>
       <c r="F94">
-        <v>9629183</v>
+        <v>9270911</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,16 +3071,16 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D95">
-        <v>13498</v>
+        <v>12843</v>
       </c>
       <c r="E95">
-        <v>27370</v>
+        <v>24077</v>
       </c>
       <c r="F95">
-        <v>11391175</v>
+        <v>9178063</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,16 +3091,16 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D96">
-        <v>13472</v>
+        <v>12791</v>
       </c>
       <c r="E96">
         <v>17274</v>
       </c>
       <c r="F96">
-        <v>6732586</v>
+        <v>6539371</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,16 +3111,16 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97">
-        <v>13204</v>
+        <v>12512</v>
       </c>
       <c r="E97">
-        <v>73568</v>
+        <v>20703</v>
       </c>
       <c r="F97">
-        <v>21064213</v>
+        <v>10451791</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3131,16 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98">
-        <v>13170</v>
+        <v>12502</v>
       </c>
       <c r="E98">
-        <v>32231</v>
+        <v>20008</v>
       </c>
       <c r="F98">
-        <v>12806346</v>
+        <v>8230335</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,16 +3151,16 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99">
-        <v>13161</v>
+        <v>12055</v>
       </c>
       <c r="E99">
-        <v>17910</v>
+        <v>12125</v>
       </c>
       <c r="F99">
-        <v>7671292</v>
+        <v>389391</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,16 +3171,16 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D100">
-        <v>13001</v>
+        <v>11973</v>
       </c>
       <c r="E100">
-        <v>13593</v>
+        <v>27430</v>
       </c>
       <c r="F100">
-        <v>6323166</v>
+        <v>10100233</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,13 +3194,13 @@
         <v>104</v>
       </c>
       <c r="D101">
-        <v>12959</v>
+        <v>11942</v>
       </c>
       <c r="E101">
-        <v>14789</v>
+        <v>50458</v>
       </c>
       <c r="F101">
-        <v>7790890</v>
+        <v>10260539</v>
       </c>
     </row>
   </sheetData>

--- a/data/total_steam_charts.xlsx
+++ b/data/total_steam_charts.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA272261-DE2A-410E-835A-FB3DADA9A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9683312-8920-421F-BE88-358BE26CCD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9927B8F9-BD31-4F63-853A-FACE68655D1D}"/>
+    <workbookView xWindow="28680" yWindow="-5340" windowWidth="16440" windowHeight="28320" xr2:uid="{9927B8F9-BD31-4F63-853A-FACE68655D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-11-11_steamcharts_100" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -163,9 +176,6 @@
     <t>PAYDAY 2</t>
   </si>
   <si>
-    <t>Rocket League</t>
-  </si>
-  <si>
     <t>VRChat</t>
   </si>
   <si>
@@ -226,9 +236,6 @@
     <t>Lost Ark</t>
   </si>
   <si>
-    <t>Sid Meier's Civilization V</t>
-  </si>
-  <si>
     <t>Lethal Company</t>
   </si>
   <si>
@@ -241,24 +248,12 @@
     <t>THE FINALS</t>
   </si>
   <si>
-    <t>Fallout 4</t>
-  </si>
-  <si>
-    <t>Hogwarts Legacy</t>
-  </si>
-  <si>
     <t>Mount &amp; Blade II: Bannerlord</t>
   </si>
   <si>
-    <t>Tapple</t>
-  </si>
-  <si>
     <t>Brotato</t>
   </si>
   <si>
-    <t>BeamNG.drive</t>
-  </si>
-  <si>
     <t>Hunt: Showdown 1896</t>
   </si>
   <si>
@@ -268,36 +263,21 @@
     <t>Battlefieldâ„¢ 2042</t>
   </si>
   <si>
-    <t>Geometry Dash</t>
-  </si>
-  <si>
     <t>Yu-Gi-Oh!  Master Duel</t>
   </si>
   <si>
-    <t>Soundpad</t>
-  </si>
-  <si>
     <t>The Witcher 3: Wild Hunt</t>
   </si>
   <si>
-    <t>Brawlhalla</t>
-  </si>
-  <si>
     <t>MIR4</t>
   </si>
   <si>
     <t>EA SPORTS FCâ„¢ 24</t>
   </si>
   <si>
-    <t>Squad</t>
-  </si>
-  <si>
     <t>Palworld</t>
   </si>
   <si>
-    <t>Assetto Corsa</t>
-  </si>
-  <si>
     <t>Don't Starve Together</t>
   </si>
   <si>
@@ -313,28 +293,61 @@
     <t>STALCRAFT: X</t>
   </si>
   <si>
-    <t>eFootballâ„¢</t>
-  </si>
-  <si>
-    <t>Counter-Strike</t>
-  </si>
-  <si>
     <t>SCUM</t>
   </si>
   <si>
-    <t>Forza Horizon 5</t>
-  </si>
-  <si>
     <t>Unturned</t>
   </si>
   <si>
     <t>OBS Studio</t>
   </si>
   <si>
-    <t>Broken Arrow Playtest</t>
-  </si>
-  <si>
     <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Farming Simulator 25</t>
+  </si>
+  <si>
+    <t>Half-Life 2</t>
+  </si>
+  <si>
+    <t>DRAGON QUEST III HD-2D Remake</t>
+  </si>
+  <si>
+    <t>Street Fighterâ„¢ 6</t>
+  </si>
+  <si>
+    <t>HoloCure - Save the Fans!</t>
+  </si>
+  <si>
+    <t>MONSTER HUNTER RISE</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Goose Goose Duck</t>
+  </si>
+  <si>
+    <t>Eternal Return</t>
+  </si>
+  <si>
+    <t>Warhammer: Vermintide 2</t>
+  </si>
+  <si>
+    <t>Russian Fishing 4</t>
+  </si>
+  <si>
+    <t>Forza Horizon 4</t>
+  </si>
+  <si>
+    <t>Battlefieldâ„¢ V</t>
+  </si>
+  <si>
+    <t>Elin</t>
+  </si>
+  <si>
+    <t>Slay the Spire</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22025976-9EFF-4BC0-821C-FB1F9180BC0A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>970520</v>
+        <v>1304310</v>
       </c>
       <c r="E2">
-        <v>1442806</v>
+        <v>1508761</v>
       </c>
       <c r="F2">
-        <v>597436988</v>
+        <v>603312492</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>644626</v>
+        <v>656745</v>
       </c>
       <c r="E3">
         <v>797599</v>
       </c>
       <c r="F3">
-        <v>311331953</v>
+        <v>319350632</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>272635</v>
+        <v>631852</v>
       </c>
       <c r="E4">
-        <v>755939</v>
+        <v>785415</v>
       </c>
       <c r="F4">
-        <v>221806238</v>
+        <v>224413141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>223397</v>
+        <v>277688</v>
       </c>
       <c r="E5">
         <v>483731</v>
       </c>
       <c r="F5">
-        <v>293527411</v>
+        <v>276190441</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,16 +1304,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>160356</v>
+        <v>213448</v>
       </c>
       <c r="E6">
-        <v>313313</v>
+        <v>330690</v>
       </c>
       <c r="F6">
-        <v>102709888</v>
+        <v>76240656</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>132504</v>
+        <v>159364</v>
       </c>
       <c r="E7">
-        <v>182603</v>
+        <v>225795</v>
       </c>
       <c r="F7">
-        <v>66651705</v>
+        <v>64333616</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,13 +1347,13 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>117037</v>
+        <v>148546</v>
       </c>
       <c r="E8">
-        <v>172551</v>
+        <v>186241</v>
       </c>
       <c r="F8">
-        <v>68207824</v>
+        <v>70316339</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,16 +1364,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>104775</v>
+        <v>127563</v>
       </c>
       <c r="E9">
-        <v>229014</v>
+        <v>313313</v>
       </c>
       <c r="F9">
-        <v>87216654</v>
+        <v>118045091</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,16 +1384,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>79618</v>
+        <v>117795</v>
       </c>
       <c r="E10">
-        <v>225795</v>
+        <v>142248</v>
       </c>
       <c r="F10">
-        <v>63323033</v>
+        <v>57614184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,16 +1404,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>70929</v>
+        <v>107103</v>
       </c>
       <c r="E11">
-        <v>111810</v>
+        <v>182603</v>
       </c>
       <c r="F11">
-        <v>44248454</v>
+        <v>67979591</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,16 +1424,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>67212</v>
+        <v>91414</v>
       </c>
       <c r="E12">
-        <v>72390</v>
+        <v>150492</v>
       </c>
       <c r="F12">
-        <v>25437718</v>
+        <v>47179976</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,16 +1444,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>61117</v>
+        <v>90109</v>
       </c>
       <c r="E13">
-        <v>142248</v>
+        <v>104488</v>
       </c>
       <c r="F13">
-        <v>57292529</v>
+        <v>29091751</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,16 +1464,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>59125</v>
+        <v>89480</v>
       </c>
       <c r="E14">
-        <v>107242</v>
+        <v>111810</v>
       </c>
       <c r="F14">
-        <v>42901925</v>
+        <v>44758705</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,16 +1484,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>58937</v>
+        <v>78293</v>
       </c>
       <c r="E15">
-        <v>118166</v>
+        <v>229014</v>
       </c>
       <c r="F15">
-        <v>39211782</v>
+        <v>78894906</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,16 +1504,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>56002</v>
+        <v>69593</v>
       </c>
       <c r="E16">
-        <v>65746</v>
+        <v>164753</v>
       </c>
       <c r="F16">
-        <v>27081564</v>
+        <v>36698775</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,16 +1524,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>52413</v>
+        <v>60700</v>
       </c>
       <c r="E17">
-        <v>68628</v>
+        <v>76455</v>
       </c>
       <c r="F17">
-        <v>31853366</v>
+        <v>35583530</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,16 +1544,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>51703</v>
+        <v>59821</v>
       </c>
       <c r="E18">
-        <v>75692</v>
+        <v>93196</v>
       </c>
       <c r="F18">
-        <v>35418328</v>
+        <v>27702779</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,16 +1564,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>49900</v>
+        <v>58957</v>
       </c>
       <c r="E19">
-        <v>92254</v>
+        <v>135883</v>
       </c>
       <c r="F19">
-        <v>30515009</v>
+        <v>6998119</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,16 +1584,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>49743</v>
+        <v>52806</v>
       </c>
       <c r="E20">
-        <v>156192</v>
+        <v>107242</v>
       </c>
       <c r="F20">
-        <v>48775220</v>
+        <v>43220858</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,16 +1604,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>49256</v>
+        <v>51697</v>
       </c>
       <c r="E21">
-        <v>78739</v>
+        <v>105041</v>
       </c>
       <c r="F21">
-        <v>30651351</v>
+        <v>37541299</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,16 +1624,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>47508</v>
+        <v>51454</v>
       </c>
       <c r="E22">
-        <v>70208</v>
+        <v>68628</v>
       </c>
       <c r="F22">
-        <v>30573101</v>
+        <v>32112709</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,16 +1644,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>44515</v>
+        <v>51075</v>
       </c>
       <c r="E23">
-        <v>330690</v>
+        <v>86698</v>
       </c>
       <c r="F23">
-        <v>77915159</v>
+        <v>29218118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,16 +1664,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>43170</v>
+        <v>49976</v>
       </c>
       <c r="E24">
-        <v>68820</v>
+        <v>72131</v>
       </c>
       <c r="F24">
-        <v>24555442</v>
+        <v>38515034</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,16 +1684,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>42433</v>
+        <v>49407</v>
       </c>
       <c r="E25">
-        <v>54229</v>
+        <v>73568</v>
       </c>
       <c r="F25">
-        <v>31366139</v>
+        <v>22594270</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,16 +1704,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>42080</v>
+        <v>49231</v>
       </c>
       <c r="E26">
-        <v>72131</v>
+        <v>49231</v>
       </c>
       <c r="F26">
-        <v>38586480</v>
+        <v>13376544</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,16 +1724,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>41627</v>
+        <v>48737</v>
       </c>
       <c r="E27">
-        <v>105041</v>
+        <v>74430</v>
       </c>
       <c r="F27">
-        <v>39117218</v>
+        <v>31203224</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,16 +1744,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>38415</v>
+        <v>46767</v>
       </c>
       <c r="E28">
-        <v>74430</v>
+        <v>68820</v>
       </c>
       <c r="F28">
-        <v>30776406</v>
+        <v>24446604</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,16 +1764,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>37759</v>
+        <v>45541</v>
       </c>
       <c r="E29">
-        <v>73054</v>
+        <v>118166</v>
       </c>
       <c r="F29">
-        <v>29185569</v>
+        <v>44093930</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,16 +1784,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>36804</v>
+        <v>45320</v>
       </c>
       <c r="E30">
-        <v>57089</v>
+        <v>69614</v>
       </c>
       <c r="F30">
-        <v>19238606</v>
+        <v>28199765</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,16 +1804,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>34645</v>
+        <v>44376</v>
       </c>
       <c r="E31">
-        <v>96212</v>
+        <v>54229</v>
       </c>
       <c r="F31">
-        <v>27142598</v>
+        <v>31926109</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,16 +1824,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D32">
-        <v>31573</v>
+        <v>41301</v>
       </c>
       <c r="E32">
-        <v>58217</v>
+        <v>64085</v>
       </c>
       <c r="F32">
-        <v>24482871</v>
+        <v>3586509</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,16 +1844,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>30276</v>
+        <v>40835</v>
       </c>
       <c r="E33">
-        <v>46060</v>
+        <v>68157</v>
       </c>
       <c r="F33">
-        <v>19510585</v>
+        <v>30328619</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +1864,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>29196</v>
+        <v>40190</v>
       </c>
       <c r="E34">
-        <v>72196</v>
+        <v>56607</v>
       </c>
       <c r="F34">
-        <v>25083289</v>
+        <v>23985215</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,16 +1884,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>28966</v>
+        <v>38823</v>
       </c>
       <c r="E35">
-        <v>94294</v>
+        <v>78739</v>
       </c>
       <c r="F35">
-        <v>30538620</v>
+        <v>30387399</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,16 +1904,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>27493</v>
+        <v>38753</v>
       </c>
       <c r="E36">
-        <v>51524</v>
+        <v>52932</v>
       </c>
       <c r="F36">
-        <v>15531262</v>
+        <v>24285970</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,16 +1924,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>26690</v>
+        <v>38576</v>
       </c>
       <c r="E37">
-        <v>51218</v>
+        <v>73054</v>
       </c>
       <c r="F37">
-        <v>19514283</v>
+        <v>28070049</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,16 +1944,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D38">
-        <v>26204</v>
+        <v>36914</v>
       </c>
       <c r="E38">
-        <v>60656</v>
+        <v>71531</v>
       </c>
       <c r="F38">
-        <v>6862568</v>
+        <v>20797998</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,16 +1964,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>26128</v>
+        <v>34498</v>
       </c>
       <c r="E39">
-        <v>56453</v>
+        <v>53447</v>
       </c>
       <c r="F39">
-        <v>24287839</v>
+        <v>21044719</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,16 +1984,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>26052</v>
+        <v>32754</v>
       </c>
       <c r="E40">
-        <v>43004</v>
+        <v>51218</v>
       </c>
       <c r="F40">
-        <v>17770091</v>
+        <v>19971187</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,16 +2004,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D41">
-        <v>25418</v>
+        <v>32550</v>
       </c>
       <c r="E41">
-        <v>51998</v>
+        <v>44166</v>
       </c>
       <c r="F41">
-        <v>23975528</v>
+        <v>18282511</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,16 +2024,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D42">
-        <v>24699</v>
+        <v>32054</v>
       </c>
       <c r="E42">
-        <v>61364</v>
+        <v>43168</v>
       </c>
       <c r="F42">
-        <v>21933197</v>
+        <v>17274244</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,16 +2044,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D43">
-        <v>24683</v>
+        <v>31103</v>
       </c>
       <c r="E43">
-        <v>53447</v>
+        <v>40066</v>
       </c>
       <c r="F43">
-        <v>21323345</v>
+        <v>16498859</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,16 +2064,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>24350</v>
+        <v>31021</v>
       </c>
       <c r="E44">
-        <v>48339</v>
+        <v>57089</v>
       </c>
       <c r="F44">
-        <v>19145985</v>
+        <v>19386147</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,16 +2084,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>24248</v>
+        <v>29637</v>
       </c>
       <c r="E45">
-        <v>38041</v>
+        <v>48339</v>
       </c>
       <c r="F45">
-        <v>5782408</v>
+        <v>19063302</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,16 +2104,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>24097</v>
+        <v>29265</v>
       </c>
       <c r="E46">
-        <v>44166</v>
+        <v>45357</v>
       </c>
       <c r="F46">
-        <v>17604403</v>
+        <v>2349241</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,16 +2124,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D47">
-        <v>23680</v>
+        <v>28780</v>
       </c>
       <c r="E47">
-        <v>35071</v>
+        <v>32231</v>
       </c>
       <c r="F47">
-        <v>12164580</v>
+        <v>13207491</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,16 +2144,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>23542</v>
+        <v>28551</v>
       </c>
       <c r="E48">
-        <v>33084</v>
+        <v>30135</v>
       </c>
       <c r="F48">
-        <v>13319588</v>
+        <v>10178213</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,16 +2164,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>22901</v>
+        <v>28293</v>
       </c>
       <c r="E49">
-        <v>71531</v>
+        <v>39554</v>
       </c>
       <c r="F49">
-        <v>18609916</v>
+        <v>13782606</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,16 +2184,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>22815</v>
+        <v>27511</v>
       </c>
       <c r="E50">
-        <v>39202</v>
+        <v>46060</v>
       </c>
       <c r="F50">
-        <v>16185848</v>
+        <v>19673934</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,16 +2204,16 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D51">
-        <v>22690</v>
+        <v>27109</v>
       </c>
       <c r="E51">
-        <v>73568</v>
+        <v>43004</v>
       </c>
       <c r="F51">
-        <v>21204468</v>
+        <v>18377377</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2211,16 +2224,16 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>22551</v>
+        <v>26574</v>
       </c>
       <c r="E52">
-        <v>46534</v>
+        <v>37443</v>
       </c>
       <c r="F52">
-        <v>14932830</v>
+        <v>15940579</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,16 +2244,16 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>22497</v>
+        <v>25856</v>
       </c>
       <c r="E53">
-        <v>35733</v>
+        <v>29685</v>
       </c>
       <c r="F53">
-        <v>13222399</v>
+        <v>10153552</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,16 +2264,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D54">
-        <v>22074</v>
+        <v>24796</v>
       </c>
       <c r="E54">
-        <v>32104</v>
+        <v>42477</v>
       </c>
       <c r="F54">
-        <v>14356227</v>
+        <v>8318187</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2284,16 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D55">
-        <v>22067</v>
+        <v>23718</v>
       </c>
       <c r="E55">
-        <v>53806</v>
+        <v>38761</v>
       </c>
       <c r="F55">
-        <v>14913389</v>
+        <v>12422135</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,16 +2304,16 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D56">
-        <v>21962</v>
+        <v>23412</v>
       </c>
       <c r="E56">
-        <v>30249</v>
+        <v>94294</v>
       </c>
       <c r="F56">
-        <v>13531629</v>
+        <v>27380923</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,16 +2324,16 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>21792</v>
+        <v>23376</v>
       </c>
       <c r="E57">
-        <v>30701</v>
+        <v>30628</v>
       </c>
       <c r="F57">
-        <v>8341655</v>
+        <v>12541256</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,16 +2344,16 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D58">
-        <v>21562</v>
+        <v>22892</v>
       </c>
       <c r="E58">
-        <v>32249</v>
+        <v>56453</v>
       </c>
       <c r="F58">
-        <v>14025446</v>
+        <v>23005002</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,16 +2364,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D59">
-        <v>21337</v>
+        <v>22660</v>
       </c>
       <c r="E59">
-        <v>32771</v>
+        <v>22660</v>
       </c>
       <c r="F59">
-        <v>12750216</v>
+        <v>10304667</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,16 +2384,16 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D60">
-        <v>21235</v>
+        <v>22173</v>
       </c>
       <c r="E60">
-        <v>38710</v>
+        <v>30152</v>
       </c>
       <c r="F60">
-        <v>15937102</v>
+        <v>2855708</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2394,13 +2407,13 @@
         <v>95</v>
       </c>
       <c r="D61">
-        <v>21177</v>
+        <v>21782</v>
       </c>
       <c r="E61">
-        <v>186536</v>
+        <v>25979</v>
       </c>
       <c r="F61">
-        <v>40949875</v>
+        <v>7091626</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,16 +2424,16 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>20104</v>
+        <v>21716</v>
       </c>
       <c r="E62">
-        <v>32219</v>
+        <v>72196</v>
       </c>
       <c r="F62">
-        <v>15269517</v>
+        <v>24575281</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,16 +2444,16 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D63">
-        <v>19919</v>
+        <v>21534</v>
       </c>
       <c r="E63">
-        <v>44448</v>
+        <v>32219</v>
       </c>
       <c r="F63">
-        <v>16985027</v>
+        <v>15203421</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,16 +2464,16 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D64">
-        <v>19674</v>
+        <v>21170</v>
       </c>
       <c r="E64">
-        <v>36874</v>
+        <v>51524</v>
       </c>
       <c r="F64">
-        <v>8460456</v>
+        <v>16336339</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,16 +2484,16 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>19338</v>
+        <v>20845</v>
       </c>
       <c r="E65">
-        <v>32691</v>
+        <v>30067</v>
       </c>
       <c r="F65">
-        <v>13484284</v>
+        <v>12183245</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,16 +2504,16 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D66">
-        <v>18939</v>
+        <v>20638</v>
       </c>
       <c r="E66">
-        <v>25333</v>
+        <v>34728</v>
       </c>
       <c r="F66">
-        <v>10515745</v>
+        <v>13670103</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,16 +2524,16 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D67">
-        <v>18598</v>
+        <v>20569</v>
       </c>
       <c r="E67">
-        <v>39554</v>
+        <v>32592</v>
       </c>
       <c r="F67">
-        <v>13719846</v>
+        <v>14665375</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,16 +2544,16 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>18348</v>
+        <v>20505</v>
       </c>
       <c r="E68">
-        <v>30628</v>
+        <v>26560</v>
       </c>
       <c r="F68">
-        <v>12330690</v>
+        <v>11040959</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,16 +2564,16 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>17422</v>
+        <v>20432</v>
       </c>
       <c r="E69">
-        <v>25276</v>
+        <v>32249</v>
       </c>
       <c r="F69">
-        <v>11636525</v>
+        <v>14263878</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,16 +2584,16 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D70">
-        <v>17391</v>
+        <v>20353</v>
       </c>
       <c r="E70">
-        <v>38761</v>
+        <v>33814</v>
       </c>
       <c r="F70">
-        <v>11133060</v>
+        <v>5470930</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,16 +2604,16 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D71">
-        <v>16625</v>
+        <v>19897</v>
       </c>
       <c r="E71">
-        <v>21909</v>
+        <v>26917</v>
       </c>
       <c r="F71">
-        <v>10796228</v>
+        <v>7976172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,16 +2624,16 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>16400</v>
+        <v>19847</v>
       </c>
       <c r="E72">
-        <v>23711</v>
+        <v>61364</v>
       </c>
       <c r="F72">
-        <v>10046275</v>
+        <v>20267066</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,16 +2644,16 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D73">
-        <v>15654</v>
+        <v>19453</v>
       </c>
       <c r="E73">
-        <v>30771</v>
+        <v>34329</v>
       </c>
       <c r="F73">
-        <v>11974965</v>
+        <v>14705200</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,16 +2664,16 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D74">
-        <v>15500</v>
+        <v>19362</v>
       </c>
       <c r="E74">
-        <v>22753</v>
+        <v>24219</v>
       </c>
       <c r="F74">
-        <v>10945696</v>
+        <v>10504095</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,16 +2684,16 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D75">
-        <v>15471</v>
+        <v>18409</v>
       </c>
       <c r="E75">
-        <v>16848</v>
+        <v>20552</v>
       </c>
       <c r="F75">
-        <v>7127201</v>
+        <v>2593560</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,16 +2704,16 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D76">
-        <v>15451</v>
+        <v>18306</v>
       </c>
       <c r="E76">
-        <v>19950</v>
+        <v>21115</v>
       </c>
       <c r="F76">
-        <v>9116105</v>
+        <v>8411658</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,16 +2724,16 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D77">
-        <v>15216</v>
+        <v>17921</v>
       </c>
       <c r="E77">
-        <v>32231</v>
+        <v>35733</v>
       </c>
       <c r="F77">
-        <v>12814668</v>
+        <v>13629775</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,16 +2744,16 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D78">
-        <v>15182</v>
+        <v>17814</v>
       </c>
       <c r="E78">
-        <v>24773</v>
+        <v>25931</v>
       </c>
       <c r="F78">
-        <v>10167792</v>
+        <v>8861039</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,16 +2764,16 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D79">
-        <v>15173</v>
+        <v>17317</v>
       </c>
       <c r="E79">
-        <v>16708</v>
+        <v>32691</v>
       </c>
       <c r="F79">
-        <v>11286917</v>
+        <v>13128798</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,16 +2784,16 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>15016</v>
+        <v>17280</v>
       </c>
       <c r="E80">
-        <v>29677</v>
+        <v>19424</v>
       </c>
       <c r="F80">
-        <v>10820802</v>
+        <v>7557112</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,16 +2804,16 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D81">
-        <v>14832</v>
+        <v>17007</v>
       </c>
       <c r="E81">
-        <v>24261</v>
+        <v>34494</v>
       </c>
       <c r="F81">
-        <v>10151687</v>
+        <v>9407168</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,16 +2824,16 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D82">
-        <v>14793</v>
+        <v>16839</v>
       </c>
       <c r="E82">
-        <v>27030</v>
+        <v>30249</v>
       </c>
       <c r="F82">
-        <v>10705002</v>
+        <v>13164180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,16 +2844,16 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D83">
-        <v>14655</v>
+        <v>16593</v>
       </c>
       <c r="E83">
-        <v>16100</v>
+        <v>55618</v>
       </c>
       <c r="F83">
-        <v>7384414</v>
+        <v>11881111</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,16 +2864,16 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D84">
-        <v>14592</v>
+        <v>16429</v>
       </c>
       <c r="E84">
-        <v>24219</v>
+        <v>46534</v>
       </c>
       <c r="F84">
-        <v>10607015</v>
+        <v>14329251</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,13 +2887,13 @@
         <v>85</v>
       </c>
       <c r="D85">
-        <v>14528</v>
+        <v>16190</v>
       </c>
       <c r="E85">
-        <v>25931</v>
+        <v>36874</v>
       </c>
       <c r="F85">
-        <v>8589966</v>
+        <v>8643594</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,16 +2904,16 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D86">
-        <v>13659</v>
+        <v>15929</v>
       </c>
       <c r="E86">
-        <v>14789</v>
+        <v>30873</v>
       </c>
       <c r="F86">
-        <v>7726393</v>
+        <v>7443911</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,16 +2924,16 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D87">
-        <v>13561</v>
+        <v>15840</v>
       </c>
       <c r="E87">
-        <v>17784</v>
+        <v>16708</v>
       </c>
       <c r="F87">
-        <v>8474972</v>
+        <v>11243500</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,16 +2944,16 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D88">
-        <v>13498</v>
+        <v>15717</v>
       </c>
       <c r="E88">
-        <v>18501</v>
+        <v>24773</v>
       </c>
       <c r="F88">
-        <v>6674136</v>
+        <v>9920225</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,16 +2964,16 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D89">
-        <v>13315</v>
+        <v>15439</v>
       </c>
       <c r="E89">
-        <v>24954</v>
+        <v>17615</v>
       </c>
       <c r="F89">
-        <v>9825672</v>
+        <v>3168762</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,16 +2984,16 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>13074</v>
+        <v>15408</v>
       </c>
       <c r="E90">
-        <v>26560</v>
+        <v>53806</v>
       </c>
       <c r="F90">
-        <v>10959919</v>
+        <v>15985324</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,16 +3004,16 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D91">
-        <v>13012</v>
+        <v>15403</v>
       </c>
       <c r="E91">
-        <v>18043</v>
+        <v>30701</v>
       </c>
       <c r="F91">
-        <v>7653336</v>
+        <v>8881304</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,16 +3024,16 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D92">
-        <v>13001</v>
+        <v>15183</v>
       </c>
       <c r="E92">
-        <v>34494</v>
+        <v>29677</v>
       </c>
       <c r="F92">
-        <v>8473756</v>
+        <v>10510603</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,16 +3044,16 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D93">
-        <v>12983</v>
+        <v>14886</v>
       </c>
       <c r="E93">
-        <v>29905</v>
+        <v>17212</v>
       </c>
       <c r="F93">
-        <v>8885007</v>
+        <v>8211056</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,16 +3064,16 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D94">
-        <v>12855</v>
+        <v>14859</v>
       </c>
       <c r="E94">
-        <v>31741</v>
+        <v>60656</v>
       </c>
       <c r="F94">
-        <v>9270911</v>
+        <v>9675780</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,16 +3084,16 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D95">
-        <v>12843</v>
+        <v>14763</v>
       </c>
       <c r="E95">
-        <v>24077</v>
+        <v>22753</v>
       </c>
       <c r="F95">
-        <v>9178063</v>
+        <v>10836821</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,16 +3104,16 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D96">
-        <v>12791</v>
+        <v>14668</v>
       </c>
       <c r="E96">
-        <v>17274</v>
+        <v>50458</v>
       </c>
       <c r="F96">
-        <v>6539371</v>
+        <v>10074264</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,16 +3124,16 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D97">
-        <v>12512</v>
+        <v>14662</v>
       </c>
       <c r="E97">
-        <v>20703</v>
+        <v>30771</v>
       </c>
       <c r="F97">
-        <v>10451791</v>
+        <v>12079762</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3144,16 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D98">
-        <v>12502</v>
+        <v>14629</v>
       </c>
       <c r="E98">
-        <v>20008</v>
+        <v>24954</v>
       </c>
       <c r="F98">
-        <v>8230335</v>
+        <v>10178812</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,16 +3164,16 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D99">
-        <v>12055</v>
+        <v>14617</v>
       </c>
       <c r="E99">
-        <v>12125</v>
+        <v>27030</v>
       </c>
       <c r="F99">
-        <v>389391</v>
+        <v>10565349</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,16 +3184,16 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D100">
-        <v>11973</v>
+        <v>14573</v>
       </c>
       <c r="E100">
         <v>27430</v>
       </c>
       <c r="F100">
-        <v>10100233</v>
+        <v>10419838</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,13 +3207,13 @@
         <v>104</v>
       </c>
       <c r="D101">
-        <v>11942</v>
+        <v>14479</v>
       </c>
       <c r="E101">
-        <v>50458</v>
+        <v>19825</v>
       </c>
       <c r="F101">
-        <v>10260539</v>
+        <v>8802487</v>
       </c>
     </row>
   </sheetData>

--- a/data/total_steam_charts.xlsx
+++ b/data/total_steam_charts.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theal\MakersFund\Roblox_Steam\steam-roblox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9683312-8920-421F-BE88-358BE26CCD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F562E35-A937-4B4B-9EFA-7FC6FE94E122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5340" windowWidth="16440" windowHeight="28320" xr2:uid="{9927B8F9-BD31-4F63-853A-FACE68655D1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9927B8F9-BD31-4F63-853A-FACE68655D1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-11-11_steamcharts_100" sheetId="1" r:id="rId1"/>
+    <sheet name="2024-11-26_steamcharts_100" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,9 +146,6 @@
     <t>The Simsâ„¢ 4</t>
   </si>
   <si>
-    <t>Euro Truck Simulator 2</t>
-  </si>
-  <si>
     <t>Cyberpunk 2077</t>
   </si>
   <si>
@@ -164,18 +161,12 @@
     <t>Destiny 2</t>
   </si>
   <si>
-    <t>Farming Simulator 22</t>
-  </si>
-  <si>
     <t>OverwatchÂ® 2</t>
   </si>
   <si>
     <t>Project Zomboid</t>
   </si>
   <si>
-    <t>PAYDAY 2</t>
-  </si>
-  <si>
     <t>VRChat</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>NARAKA: BLADEPOINT</t>
   </si>
   <si>
-    <t>Europa Universalis IV</t>
-  </si>
-  <si>
     <t>THE FINALS</t>
   </si>
   <si>
@@ -254,27 +242,15 @@
     <t>Brotato</t>
   </si>
   <si>
-    <t>Hunt: Showdown 1896</t>
-  </si>
-  <si>
     <t>Stellaris</t>
   </si>
   <si>
-    <t>Battlefieldâ„¢ 2042</t>
-  </si>
-  <si>
     <t>Yu-Gi-Oh!  Master Duel</t>
   </si>
   <si>
-    <t>The Witcher 3: Wild Hunt</t>
-  </si>
-  <si>
     <t>MIR4</t>
   </si>
   <si>
-    <t>EA SPORTS FCâ„¢ 24</t>
-  </si>
-  <si>
     <t>Palworld</t>
   </si>
   <si>
@@ -290,64 +266,88 @@
     <t>Black Myth: Wukong</t>
   </si>
   <si>
-    <t>STALCRAFT: X</t>
-  </si>
-  <si>
     <t>SCUM</t>
   </si>
   <si>
     <t>Unturned</t>
   </si>
   <si>
-    <t>OBS Studio</t>
-  </si>
-  <si>
     <t>Limbus Company</t>
   </si>
   <si>
     <t>Farming Simulator 25</t>
   </si>
   <si>
-    <t>Half-Life 2</t>
-  </si>
-  <si>
-    <t>DRAGON QUEST III HD-2D Remake</t>
-  </si>
-  <si>
     <t>Street Fighterâ„¢ 6</t>
   </si>
   <si>
-    <t>HoloCure - Save the Fans!</t>
-  </si>
-  <si>
-    <t>MONSTER HUNTER RISE</t>
-  </si>
-  <si>
     <t>Cats</t>
   </si>
   <si>
-    <t>Goose Goose Duck</t>
-  </si>
-  <si>
-    <t>Eternal Return</t>
-  </si>
-  <si>
-    <t>Warhammer: Vermintide 2</t>
-  </si>
-  <si>
-    <t>Russian Fishing 4</t>
-  </si>
-  <si>
-    <t>Forza Horizon 4</t>
-  </si>
-  <si>
-    <t>Battlefieldâ„¢ V</t>
-  </si>
-  <si>
-    <t>Elin</t>
-  </si>
-  <si>
     <t>Slay the Spire</t>
+  </si>
+  <si>
+    <t>S.T.A.L.K.E.R. 2: Heart of Chornobyl</t>
+  </si>
+  <si>
+    <t>SUPERVIVE</t>
+  </si>
+  <si>
+    <t>Strinova</t>
+  </si>
+  <si>
+    <t>Rocket League</t>
+  </si>
+  <si>
+    <t>Governor of Poker 3</t>
+  </si>
+  <si>
+    <t>Balatro</t>
+  </si>
+  <si>
+    <t>Oxygen Not Included</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization V</t>
+  </si>
+  <si>
+    <t>Fallout 4</t>
+  </si>
+  <si>
+    <t>Luma Island</t>
+  </si>
+  <si>
+    <t>Tapple</t>
+  </si>
+  <si>
+    <t>Killing Floor 2</t>
+  </si>
+  <si>
+    <t>Geometry Dash</t>
+  </si>
+  <si>
+    <t>ATLYSS</t>
+  </si>
+  <si>
+    <t>BeamNG.drive</t>
+  </si>
+  <si>
+    <t>WEBFISHING</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>é›€é­‚éº»å°†(MahjongSoul)</t>
+  </si>
+  <si>
+    <t>Dark and Darker</t>
+  </si>
+  <si>
+    <t>Cookie Clicker</t>
+  </si>
+  <si>
+    <t>Soundpad</t>
   </si>
 </sst>
 </file>
@@ -1193,13 +1193,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22025976-9EFF-4BC0-821C-FB1F9180BC0A}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1227,16 +1227,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1304310</v>
+        <v>688201</v>
       </c>
       <c r="E2">
-        <v>1508761</v>
+        <v>1525073</v>
       </c>
       <c r="F2">
-        <v>603312492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>600643322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1247,16 +1247,16 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>656745</v>
+        <v>292614</v>
       </c>
       <c r="E3">
         <v>797599</v>
       </c>
       <c r="F3">
-        <v>319350632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>322340452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1267,16 +1267,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>631852</v>
+        <v>223723</v>
       </c>
       <c r="E4">
-        <v>785415</v>
+        <v>796001</v>
       </c>
       <c r="F4">
-        <v>224413141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223824059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>277688</v>
+        <v>191922</v>
       </c>
       <c r="E5">
         <v>483731</v>
       </c>
       <c r="F5">
-        <v>276190441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>232709789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1304,19 +1304,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>213448</v>
+        <v>136515</v>
       </c>
       <c r="E6">
-        <v>330690</v>
+        <v>313313</v>
       </c>
       <c r="F6">
-        <v>76240656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123642808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1324,19 +1324,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>159364</v>
+        <v>88249</v>
       </c>
       <c r="E7">
-        <v>225795</v>
+        <v>330690</v>
       </c>
       <c r="F7">
-        <v>64333616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71264470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1344,19 +1344,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>148546</v>
+        <v>70510</v>
       </c>
       <c r="E8">
-        <v>186241</v>
+        <v>142248</v>
       </c>
       <c r="F8">
-        <v>70316339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56272299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1364,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>127563</v>
+        <v>69538</v>
       </c>
       <c r="E9">
-        <v>313313</v>
+        <v>225795</v>
       </c>
       <c r="F9">
-        <v>118045091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64038709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1384,19 +1384,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>117795</v>
+        <v>69074</v>
       </c>
       <c r="E10">
-        <v>142248</v>
+        <v>186241</v>
       </c>
       <c r="F10">
-        <v>57614184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70581011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1407,16 +1407,16 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>107103</v>
+        <v>61131</v>
       </c>
       <c r="E11">
         <v>182603</v>
       </c>
       <c r="F11">
-        <v>67979591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67888907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1427,16 +1427,16 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>91414</v>
+        <v>55444</v>
       </c>
       <c r="E12">
-        <v>150492</v>
+        <v>115955</v>
       </c>
       <c r="F12">
-        <v>47179976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44262934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1444,19 +1444,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>90109</v>
+        <v>51141</v>
       </c>
       <c r="E13">
-        <v>104488</v>
+        <v>107086</v>
       </c>
       <c r="F13">
-        <v>29091751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41725586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1464,19 +1464,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>89480</v>
+        <v>47719</v>
       </c>
       <c r="E14">
-        <v>111810</v>
+        <v>171960</v>
       </c>
       <c r="F14">
-        <v>44758705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65475055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1484,19 +1484,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>78293</v>
+        <v>44254</v>
       </c>
       <c r="E15">
-        <v>229014</v>
+        <v>66835</v>
       </c>
       <c r="F15">
-        <v>78894906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37195506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1504,19 +1504,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>69593</v>
+        <v>43302</v>
       </c>
       <c r="E16">
-        <v>164753</v>
+        <v>76455</v>
       </c>
       <c r="F16">
-        <v>36698775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34305509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1524,19 +1524,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>60700</v>
+        <v>42115</v>
       </c>
       <c r="E17">
-        <v>76455</v>
+        <v>111810</v>
       </c>
       <c r="F17">
-        <v>35583530</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44645623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1544,19 +1544,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>59821</v>
+        <v>36178</v>
       </c>
       <c r="E18">
-        <v>93196</v>
+        <v>120960</v>
       </c>
       <c r="F18">
-        <v>27702779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8237214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1564,19 +1564,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>58957</v>
+        <v>35816</v>
       </c>
       <c r="E19">
-        <v>135883</v>
+        <v>104488</v>
       </c>
       <c r="F19">
-        <v>6998119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30337804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1584,19 +1584,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>52806</v>
+        <v>35584</v>
       </c>
       <c r="E20">
-        <v>107242</v>
+        <v>56453</v>
       </c>
       <c r="F20">
-        <v>43220858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21894916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1604,19 +1604,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>51697</v>
+        <v>35167</v>
       </c>
       <c r="E21">
-        <v>105041</v>
+        <v>70742</v>
       </c>
       <c r="F21">
-        <v>37541299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29511440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1624,19 +1624,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>51454</v>
+        <v>34626</v>
       </c>
       <c r="E22">
-        <v>68628</v>
+        <v>84684</v>
       </c>
       <c r="F22">
-        <v>32112709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32384992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1644,19 +1644,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>51075</v>
+        <v>34110</v>
       </c>
       <c r="E23">
-        <v>86698</v>
+        <v>112738</v>
       </c>
       <c r="F23">
-        <v>29218118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41241049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1664,19 +1664,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>49976</v>
+        <v>33292</v>
       </c>
       <c r="E24">
-        <v>72131</v>
+        <v>52932</v>
       </c>
       <c r="F24">
-        <v>38515034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23795325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1684,19 +1684,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>49407</v>
+        <v>33077</v>
       </c>
       <c r="E25">
-        <v>73568</v>
+        <v>68417</v>
       </c>
       <c r="F25">
-        <v>22594270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29658214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1704,19 +1704,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>49231</v>
+        <v>32036</v>
       </c>
       <c r="E26">
-        <v>49231</v>
+        <v>59030</v>
       </c>
       <c r="F26">
-        <v>13376544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25901828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1724,19 +1724,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>48737</v>
+        <v>31700</v>
       </c>
       <c r="E27">
-        <v>74430</v>
+        <v>56607</v>
       </c>
       <c r="F27">
-        <v>31203224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23090898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1744,19 +1744,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>46767</v>
+        <v>30164</v>
       </c>
       <c r="E28">
-        <v>68820</v>
+        <v>68157</v>
       </c>
       <c r="F28">
-        <v>24446604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28234893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1764,19 +1764,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>45541</v>
+        <v>29744</v>
       </c>
       <c r="E29">
-        <v>118166</v>
+        <v>93196</v>
       </c>
       <c r="F29">
-        <v>44093930</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28875916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1784,19 +1784,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D30">
-        <v>45320</v>
+        <v>28288</v>
       </c>
       <c r="E30">
-        <v>69614</v>
+        <v>126159</v>
       </c>
       <c r="F30">
-        <v>28199765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29973573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1804,19 +1804,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D31">
-        <v>44376</v>
+        <v>26284</v>
       </c>
       <c r="E31">
-        <v>54229</v>
+        <v>71531</v>
       </c>
       <c r="F31">
-        <v>31926109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21868113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1824,19 +1824,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>41301</v>
+        <v>25083</v>
       </c>
       <c r="E32">
-        <v>64085</v>
+        <v>73568</v>
       </c>
       <c r="F32">
-        <v>3586509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22462367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1844,19 +1844,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>40835</v>
+        <v>24698</v>
       </c>
       <c r="E33">
-        <v>68157</v>
+        <v>68628</v>
       </c>
       <c r="F33">
-        <v>30328619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31589147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1864,19 +1864,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>40190</v>
+        <v>24228</v>
       </c>
       <c r="E34">
-        <v>56607</v>
+        <v>47774</v>
       </c>
       <c r="F34">
-        <v>23985215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4004329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1884,19 +1884,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>38823</v>
+        <v>24211</v>
       </c>
       <c r="E35">
-        <v>78739</v>
+        <v>56787</v>
       </c>
       <c r="F35">
-        <v>30387399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22230888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1904,19 +1904,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>38753</v>
+        <v>23948</v>
       </c>
       <c r="E36">
-        <v>52932</v>
+        <v>46103</v>
       </c>
       <c r="F36">
-        <v>24285970</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19817355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1924,19 +1924,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>38576</v>
+        <v>23642</v>
       </c>
       <c r="E37">
-        <v>73054</v>
+        <v>49231</v>
       </c>
       <c r="F37">
-        <v>28070049</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15993115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1944,19 +1944,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>36914</v>
+        <v>23409</v>
       </c>
       <c r="E38">
-        <v>71531</v>
+        <v>74708</v>
       </c>
       <c r="F38">
-        <v>20797998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28455303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1964,19 +1964,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>34498</v>
+        <v>22634</v>
       </c>
       <c r="E39">
-        <v>53447</v>
+        <v>35733</v>
       </c>
       <c r="F39">
-        <v>21044719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13883547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1984,19 +1984,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>32754</v>
+        <v>22382</v>
       </c>
       <c r="E40">
-        <v>51218</v>
+        <v>53806</v>
       </c>
       <c r="F40">
-        <v>19971187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16982560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2004,19 +2004,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>32550</v>
+        <v>21496</v>
       </c>
       <c r="E41">
-        <v>44166</v>
+        <v>51218</v>
       </c>
       <c r="F41">
-        <v>18282511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19773956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2024,19 +2024,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>32054</v>
+        <v>21441</v>
       </c>
       <c r="E42">
-        <v>43168</v>
+        <v>42304</v>
       </c>
       <c r="F42">
-        <v>17274244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16818376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2044,19 +2044,19 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D43">
-        <v>31103</v>
+        <v>21296</v>
       </c>
       <c r="E43">
-        <v>40066</v>
+        <v>32592</v>
       </c>
       <c r="F43">
-        <v>16498859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16070743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2064,19 +2064,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>31021</v>
+        <v>21200</v>
       </c>
       <c r="E44">
-        <v>57089</v>
+        <v>46060</v>
       </c>
       <c r="F44">
-        <v>19386147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19410214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2084,19 +2084,19 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>29637</v>
+        <v>20811</v>
       </c>
       <c r="E45">
-        <v>48339</v>
+        <v>43004</v>
       </c>
       <c r="F45">
-        <v>19063302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18376185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2104,19 +2104,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>29265</v>
+        <v>20788</v>
       </c>
       <c r="E46">
-        <v>45357</v>
+        <v>54229</v>
       </c>
       <c r="F46">
-        <v>2349241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32401244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2124,19 +2124,19 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>28780</v>
+        <v>20563</v>
       </c>
       <c r="E47">
-        <v>32231</v>
+        <v>35689</v>
       </c>
       <c r="F47">
-        <v>13207491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15442140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2144,19 +2144,19 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>28551</v>
+        <v>20533</v>
       </c>
       <c r="E48">
-        <v>30135</v>
+        <v>74100</v>
       </c>
       <c r="F48">
-        <v>10178213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27538142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2164,19 +2164,19 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>28293</v>
+        <v>19322</v>
       </c>
       <c r="E49">
-        <v>39554</v>
+        <v>45238</v>
       </c>
       <c r="F49">
-        <v>13782606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18144158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2184,19 +2184,19 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D50">
-        <v>27511</v>
+        <v>19071</v>
       </c>
       <c r="E50">
-        <v>46060</v>
+        <v>135883</v>
       </c>
       <c r="F50">
-        <v>19673934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16463684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2204,19 +2204,19 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>27109</v>
+        <v>18694</v>
       </c>
       <c r="E51">
-        <v>43004</v>
+        <v>34565</v>
       </c>
       <c r="F51">
-        <v>18377377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14709889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2224,19 +2224,19 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>26574</v>
+        <v>18667</v>
       </c>
       <c r="E52">
-        <v>37443</v>
+        <v>18700</v>
       </c>
       <c r="F52">
-        <v>15940579</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10983130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2244,19 +2244,19 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>25856</v>
+        <v>18300</v>
       </c>
       <c r="E53">
-        <v>29685</v>
+        <v>44166</v>
       </c>
       <c r="F53">
-        <v>10153552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17915110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2264,19 +2264,19 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>24796</v>
+        <v>18295</v>
       </c>
       <c r="E54">
-        <v>42477</v>
+        <v>28831</v>
       </c>
       <c r="F54">
-        <v>8318187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14638595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2284,19 +2284,19 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D55">
-        <v>23718</v>
+        <v>18119</v>
       </c>
       <c r="E55">
-        <v>38761</v>
+        <v>37770</v>
       </c>
       <c r="F55">
-        <v>12422135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2775713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2304,19 +2304,19 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D56">
-        <v>23412</v>
+        <v>17953</v>
       </c>
       <c r="E56">
-        <v>94294</v>
+        <v>40477</v>
       </c>
       <c r="F56">
-        <v>27380923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16276568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2324,19 +2324,19 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>23376</v>
+        <v>17905</v>
       </c>
       <c r="E57">
-        <v>30628</v>
+        <v>64367</v>
       </c>
       <c r="F57">
-        <v>12541256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22243346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2344,19 +2344,19 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>22892</v>
+        <v>17188</v>
       </c>
       <c r="E58">
-        <v>56453</v>
+        <v>27430</v>
       </c>
       <c r="F58">
-        <v>23005002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10255629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2364,19 +2364,19 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D59">
-        <v>22660</v>
+        <v>16885</v>
       </c>
       <c r="E59">
         <v>22660</v>
       </c>
       <c r="F59">
-        <v>10304667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10404735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2384,19 +2384,19 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>22173</v>
+        <v>16508</v>
       </c>
       <c r="E60">
-        <v>30152</v>
+        <v>44245</v>
       </c>
       <c r="F60">
-        <v>2855708</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17139563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2404,19 +2404,19 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>21782</v>
+        <v>16305</v>
       </c>
       <c r="E61">
-        <v>25979</v>
+        <v>62682</v>
       </c>
       <c r="F61">
-        <v>7091626</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23272054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2424,19 +2424,19 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>21716</v>
+        <v>15894</v>
       </c>
       <c r="E62">
-        <v>72196</v>
+        <v>51524</v>
       </c>
       <c r="F62">
-        <v>24575281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16559109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2444,19 +2444,19 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D63">
-        <v>21534</v>
+        <v>15821</v>
       </c>
       <c r="E63">
-        <v>32219</v>
+        <v>30198</v>
       </c>
       <c r="F63">
-        <v>15203421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12334673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2464,19 +2464,19 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D64">
-        <v>21170</v>
+        <v>15689</v>
       </c>
       <c r="E64">
-        <v>51524</v>
+        <v>43739</v>
       </c>
       <c r="F64">
-        <v>16336339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13357104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2484,19 +2484,19 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D65">
-        <v>20845</v>
+        <v>15463</v>
       </c>
       <c r="E65">
-        <v>30067</v>
+        <v>39554</v>
       </c>
       <c r="F65">
-        <v>12183245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13424065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2504,19 +2504,19 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D66">
-        <v>20638</v>
+        <v>15341</v>
       </c>
       <c r="E66">
-        <v>34728</v>
+        <v>33569</v>
       </c>
       <c r="F66">
-        <v>13670103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9237900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2524,19 +2524,19 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D67">
-        <v>20569</v>
+        <v>15176</v>
       </c>
       <c r="E67">
-        <v>32592</v>
+        <v>32231</v>
       </c>
       <c r="F67">
-        <v>14665375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12743429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2544,19 +2544,19 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D68">
-        <v>20505</v>
+        <v>14027</v>
       </c>
       <c r="E68">
-        <v>26560</v>
+        <v>32249</v>
       </c>
       <c r="F68">
-        <v>11040959</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14004257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2564,19 +2564,19 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>20432</v>
+        <v>13825</v>
       </c>
       <c r="E69">
-        <v>32249</v>
+        <v>35672</v>
       </c>
       <c r="F69">
-        <v>14263878</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13717085</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2584,19 +2584,19 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D70">
-        <v>20353</v>
+        <v>12991</v>
       </c>
       <c r="E70">
-        <v>33814</v>
+        <v>42477</v>
       </c>
       <c r="F70">
-        <v>5470930</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11307594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2604,19 +2604,19 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D71">
-        <v>19897</v>
+        <v>12719</v>
       </c>
       <c r="E71">
-        <v>26917</v>
+        <v>30628</v>
       </c>
       <c r="F71">
-        <v>7976172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12223212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2624,19 +2624,19 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D72">
-        <v>19847</v>
+        <v>12626</v>
       </c>
       <c r="E72">
-        <v>61364</v>
+        <v>21731</v>
       </c>
       <c r="F72">
-        <v>20267066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10342931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2644,19 +2644,19 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D73">
-        <v>19453</v>
+        <v>12626</v>
       </c>
       <c r="E73">
-        <v>34329</v>
+        <v>30067</v>
       </c>
       <c r="F73">
-        <v>14705200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12238712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2664,19 +2664,19 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>19362</v>
+        <v>12558</v>
       </c>
       <c r="E74">
-        <v>24219</v>
+        <v>25818</v>
       </c>
       <c r="F74">
-        <v>10504095</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10655947</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2684,19 +2684,19 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D75">
-        <v>18409</v>
+        <v>12546</v>
       </c>
       <c r="E75">
-        <v>20552</v>
+        <v>15190</v>
       </c>
       <c r="F75">
-        <v>2593560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5348143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2704,19 +2704,19 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D76">
-        <v>18306</v>
+        <v>12207</v>
       </c>
       <c r="E76">
-        <v>21115</v>
+        <v>22868</v>
       </c>
       <c r="F76">
-        <v>8411658</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5390539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2724,19 +2724,19 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D77">
-        <v>17921</v>
+        <v>12202</v>
       </c>
       <c r="E77">
-        <v>35733</v>
+        <v>30701</v>
       </c>
       <c r="F77">
-        <v>13629775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9790168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2744,19 +2744,19 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D78">
-        <v>17814</v>
+        <v>12185</v>
       </c>
       <c r="E78">
-        <v>25931</v>
+        <v>60656</v>
       </c>
       <c r="F78">
-        <v>8861039</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12610064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2764,19 +2764,19 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>17317</v>
+        <v>11875</v>
       </c>
       <c r="E79">
-        <v>32691</v>
+        <v>21909</v>
       </c>
       <c r="F79">
-        <v>13128798</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10640612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2784,19 +2784,19 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D80">
-        <v>17280</v>
+        <v>11619</v>
       </c>
       <c r="E80">
-        <v>19424</v>
+        <v>22872</v>
       </c>
       <c r="F80">
-        <v>7557112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10124593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2804,19 +2804,19 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D81">
-        <v>17007</v>
+        <v>11608</v>
       </c>
       <c r="E81">
-        <v>34494</v>
+        <v>29187</v>
       </c>
       <c r="F81">
-        <v>9407168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12230846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2824,19 +2824,19 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D82">
-        <v>16839</v>
+        <v>11542</v>
       </c>
       <c r="E82">
-        <v>30249</v>
+        <v>17212</v>
       </c>
       <c r="F82">
-        <v>13164180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8640827</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2844,19 +2844,19 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D83">
-        <v>16593</v>
+        <v>11483</v>
       </c>
       <c r="E83">
-        <v>55618</v>
+        <v>35011</v>
       </c>
       <c r="F83">
-        <v>11881111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2174812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2864,19 +2864,19 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D84">
-        <v>16429</v>
+        <v>11169</v>
       </c>
       <c r="E84">
-        <v>46534</v>
+        <v>24954</v>
       </c>
       <c r="F84">
-        <v>14329251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10261917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2884,19 +2884,19 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D85">
-        <v>16190</v>
+        <v>10874</v>
       </c>
       <c r="E85">
-        <v>36874</v>
+        <v>19011</v>
       </c>
       <c r="F85">
-        <v>8643594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8351450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2904,19 +2904,19 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D86">
-        <v>15929</v>
+        <v>10844</v>
       </c>
       <c r="E86">
-        <v>30873</v>
+        <v>22892</v>
       </c>
       <c r="F86">
-        <v>7443911</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10225661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2924,19 +2924,19 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D87">
-        <v>15840</v>
+        <v>10685</v>
       </c>
       <c r="E87">
-        <v>16708</v>
+        <v>17784</v>
       </c>
       <c r="F87">
-        <v>11243500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9248106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2944,19 +2944,19 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D88">
-        <v>15717</v>
+        <v>10553</v>
       </c>
       <c r="E88">
-        <v>24773</v>
+        <v>13593</v>
       </c>
       <c r="F88">
-        <v>9920225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7142456</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2964,19 +2964,19 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D89">
-        <v>15439</v>
+        <v>10263</v>
       </c>
       <c r="E89">
-        <v>17615</v>
+        <v>30771</v>
       </c>
       <c r="F89">
-        <v>3168762</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11696578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2984,19 +2984,19 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D90">
-        <v>15408</v>
+        <v>10175</v>
       </c>
       <c r="E90">
-        <v>53806</v>
+        <v>23434</v>
       </c>
       <c r="F90">
-        <v>15985324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3004,19 +3004,19 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D91">
-        <v>15403</v>
+        <v>10054</v>
       </c>
       <c r="E91">
-        <v>30701</v>
+        <v>29685</v>
       </c>
       <c r="F91">
-        <v>8881304</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9822891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3024,19 +3024,19 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D92">
-        <v>15183</v>
+        <v>10015</v>
       </c>
       <c r="E92">
-        <v>29677</v>
+        <v>10671</v>
       </c>
       <c r="F92">
-        <v>10510603</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>541039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3044,19 +3044,19 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D93">
-        <v>14886</v>
+        <v>10004</v>
       </c>
       <c r="E93">
-        <v>17212</v>
+        <v>25201</v>
       </c>
       <c r="F93">
-        <v>8211056</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10199977</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3064,19 +3064,19 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D94">
-        <v>14859</v>
+        <v>9886</v>
       </c>
       <c r="E94">
-        <v>60656</v>
+        <v>23966</v>
       </c>
       <c r="F94">
-        <v>9675780</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7858358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3084,19 +3084,19 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D95">
-        <v>14763</v>
+        <v>9865</v>
       </c>
       <c r="E95">
-        <v>22753</v>
+        <v>11023</v>
       </c>
       <c r="F95">
-        <v>10836821</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4427130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3104,19 +3104,19 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D96">
-        <v>14668</v>
+        <v>9849</v>
       </c>
       <c r="E96">
-        <v>50458</v>
+        <v>38761</v>
       </c>
       <c r="F96">
-        <v>10074264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13068842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3124,19 +3124,19 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D97">
-        <v>14662</v>
+        <v>9781</v>
       </c>
       <c r="E97">
-        <v>30771</v>
+        <v>30249</v>
       </c>
       <c r="F97">
-        <v>12079762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12389403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3144,19 +3144,19 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D98">
-        <v>14629</v>
+        <v>9579</v>
       </c>
       <c r="E98">
-        <v>24954</v>
+        <v>19407</v>
       </c>
       <c r="F98">
-        <v>10178812</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4485094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3164,19 +3164,19 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D99">
-        <v>14617</v>
+        <v>9259</v>
       </c>
       <c r="E99">
-        <v>27030</v>
+        <v>17920</v>
       </c>
       <c r="F99">
-        <v>10565349</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7891143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3184,19 +3184,19 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D100">
-        <v>14573</v>
+        <v>9251</v>
       </c>
       <c r="E100">
-        <v>27430</v>
+        <v>11741</v>
       </c>
       <c r="F100">
-        <v>10419838</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7279090</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3207,13 +3207,13 @@
         <v>104</v>
       </c>
       <c r="D101">
-        <v>14479</v>
+        <v>9188</v>
       </c>
       <c r="E101">
-        <v>19825</v>
+        <v>19780</v>
       </c>
       <c r="F101">
-        <v>8802487</v>
+        <v>8996307</v>
       </c>
     </row>
   </sheetData>
